--- a/src/images/ModeleS3Jury.xlsx
+++ b/src/images/ModeleS3Jury.xlsx
@@ -20,18 +20,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
   <si>
     <t xml:space="preserve">BUT 2 INFORMATIQUE</t>
   </si>
   <si>
     <t xml:space="preserve">SEMESTRE 3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2023 -2024</t>
-  </si>
-  <si>
-    <t xml:space="preserve">JURY DU 14 MARS 2024</t>
   </si>
   <si>
     <t xml:space="preserve">Compétences BUT 1</t>
@@ -293,13 +287,13 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A2:T9"/>
+  <dimension ref="A2:T57"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="U21" activeCellId="0" sqref="U21"/>
+      <selection pane="topLeft" activeCell="F4" activeCellId="0" sqref="F4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.5390625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.54296875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="10.83"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="6"/>
@@ -352,15 +346,13 @@
       <c r="S3" s="1"/>
       <c r="T3" s="1"/>
     </row>
-    <row r="4" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1"/>
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
       <c r="E4" s="2"/>
-      <c r="F4" s="2" t="s">
-        <v>2</v>
-      </c>
+      <c r="F4" s="2"/>
       <c r="G4" s="3"/>
       <c r="H4" s="3"/>
       <c r="I4" s="3"/>
@@ -376,15 +368,13 @@
       <c r="S4" s="3"/>
       <c r="T4" s="1"/>
     </row>
-    <row r="5" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1"/>
       <c r="B5" s="1"/>
       <c r="C5" s="1"/>
       <c r="D5" s="1"/>
       <c r="E5" s="1"/>
-      <c r="F5" s="2" t="s">
-        <v>3</v>
-      </c>
+      <c r="F5" s="2"/>
       <c r="G5" s="3"/>
       <c r="H5" s="1"/>
       <c r="I5" s="1"/>
@@ -396,7 +386,7 @@
     </row>
     <row r="7" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="G7" s="5" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H7" s="5"/>
       <c r="I7" s="5"/>
@@ -404,7 +394,7 @@
       <c r="K7" s="5"/>
       <c r="L7" s="5"/>
       <c r="M7" s="5" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="N7" s="5"/>
       <c r="O7" s="5"/>
@@ -416,62 +406,62 @@
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="B8" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="C8" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="B8" s="6" t="s">
+      <c r="D8" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="C8" s="6" t="s">
+      <c r="E8" s="6" t="s">
         <v>8</v>
-      </c>
-      <c r="D8" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="E8" s="6" t="s">
-        <v>10</v>
       </c>
       <c r="F8" s="7"/>
       <c r="G8" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="H8" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="I8" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="H8" s="9" t="s">
+      <c r="J8" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="I8" s="9" t="s">
+      <c r="K8" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="J8" s="9" t="s">
+      <c r="L8" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="K8" s="9" t="s">
+      <c r="M8" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="L8" s="10" t="s">
+      <c r="N8" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="M8" s="8" t="s">
+      <c r="O8" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="N8" s="9" t="s">
+      <c r="P8" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="O8" s="9" t="s">
+      <c r="Q8" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="P8" s="9" t="s">
+      <c r="R8" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="Q8" s="9" t="s">
+      <c r="S8" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="R8" s="9" t="s">
+      <c r="T8" s="10" t="s">
         <v>22</v>
-      </c>
-      <c r="S8" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="T8" s="10" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
